--- a/project/DB/all_list_database.xlsx
+++ b/project/DB/all_list_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:K254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>quantities</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>kg_quantities_per_portion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -527,6 +532,9 @@
           <t>4 tbsp</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -575,6 +583,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>0.01666666666666667</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -623,6 +634,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -667,6 +681,9 @@
           <t>¼ tsp</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>0.0002053716666666667</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -715,6 +732,9 @@
           <t>2 x 400g cans chopped</t>
         </is>
       </c>
+      <c r="K6" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -763,6 +783,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>0.0008214866666666666</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -811,6 +834,9 @@
           <t>6 tbsp</t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -859,6 +885,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K9" t="n">
+        <v>0.06666666666666667</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -907,6 +936,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K10" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -955,6 +987,9 @@
           <t>70g</t>
         </is>
       </c>
+      <c r="K11" t="n">
+        <v>0.01166666666666667</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1003,6 +1038,9 @@
           <t>50g</t>
         </is>
       </c>
+      <c r="K12" t="n">
+        <v>0.008333333333333333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1047,6 +1085,9 @@
           <t>½ small bunch of</t>
         </is>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1095,6 +1136,9 @@
           <t>120g</t>
         </is>
       </c>
+      <c r="K14" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1143,6 +1187,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K15" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1191,6 +1238,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1235,6 +1285,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K17" t="n">
+        <v>0.00123223</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1283,6 +1336,9 @@
           <t>80g</t>
         </is>
       </c>
+      <c r="K18" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1331,6 +1387,9 @@
           <t>600g</t>
         </is>
       </c>
+      <c r="K19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1379,6 +1438,9 @@
           <t>400g can</t>
         </is>
       </c>
+      <c r="K20" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1427,6 +1489,9 @@
           <t>100ml</t>
         </is>
       </c>
+      <c r="K21" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1475,6 +1540,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K22" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1519,6 +1587,9 @@
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1567,6 +1638,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="K24" t="n">
+        <v>0.05000000000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1615,6 +1689,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K25" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1663,6 +1740,9 @@
           <t>8 tbsp</t>
         </is>
       </c>
+      <c r="K26" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1711,6 +1791,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K27" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1759,6 +1842,9 @@
           <t>125g</t>
         </is>
       </c>
+      <c r="K28" t="n">
+        <v>0.02083333333333333</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1807,6 +1893,9 @@
           <t>handful</t>
         </is>
       </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1855,6 +1944,9 @@
           <t>100g</t>
         </is>
       </c>
+      <c r="K30" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1903,6 +1995,9 @@
           <t>160g</t>
         </is>
       </c>
+      <c r="K31" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1951,6 +2046,9 @@
           <t>50g</t>
         </is>
       </c>
+      <c r="K32" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1999,6 +2097,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="K33" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2043,6 +2144,9 @@
           <t>½ tsp</t>
         </is>
       </c>
+      <c r="K34" t="n">
+        <v>0.00123223</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2087,6 +2191,9 @@
           <t>good handful</t>
         </is>
       </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2131,6 +2238,9 @@
           <t>2 tsp</t>
         </is>
       </c>
+      <c r="K36" t="n">
+        <v>0.00492892</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2179,6 +2289,9 @@
           <t>few drops</t>
         </is>
       </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2227,6 +2340,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K38" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2275,6 +2391,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K39" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2323,6 +2442,9 @@
           <t>280g</t>
         </is>
       </c>
+      <c r="K40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2371,6 +2493,9 @@
           <t>1kg</t>
         </is>
       </c>
+      <c r="K41" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2419,6 +2544,9 @@
           <t>4 tbsp</t>
         </is>
       </c>
+      <c r="K42" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2467,6 +2595,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="K43" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2507,6 +2638,9 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2551,6 +2685,9 @@
           <t>6 tbsp</t>
         </is>
       </c>
+      <c r="K45" t="n">
+        <v>0.0225</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2595,6 +2732,9 @@
           <t>6 tbsp</t>
         </is>
       </c>
+      <c r="K46" t="n">
+        <v>0.0225</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2643,6 +2783,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K47" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2691,6 +2834,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K48" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2739,6 +2885,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K49" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2787,6 +2936,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K50" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2835,6 +2987,9 @@
           <t>200ml</t>
         </is>
       </c>
+      <c r="K51" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2879,6 +3034,9 @@
           <t>½ tsp</t>
         </is>
       </c>
+      <c r="K52" t="n">
+        <v>0.00123223</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2927,6 +3085,9 @@
           <t>100g</t>
         </is>
       </c>
+      <c r="K53" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2975,6 +3136,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K54" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3023,6 +3187,9 @@
           <t>50g</t>
         </is>
       </c>
+      <c r="K55" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3071,6 +3238,9 @@
           <t>50g</t>
         </is>
       </c>
+      <c r="K56" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3119,6 +3289,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K57" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3167,6 +3340,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K58" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3211,6 +3387,9 @@
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3255,6 +3434,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K60" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3299,6 +3481,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K61" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3347,6 +3532,9 @@
           <t>30g</t>
         </is>
       </c>
+      <c r="K62" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3395,6 +3583,9 @@
           <t>100g</t>
         </is>
       </c>
+      <c r="K63" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3439,6 +3630,9 @@
           <t>2 tsp</t>
         </is>
       </c>
+      <c r="K64" t="n">
+        <v>0.00246446</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3487,6 +3681,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K65" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3535,6 +3732,9 @@
           <t>1½ tbsp</t>
         </is>
       </c>
+      <c r="K66" t="n">
+        <v>0.005625</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3583,6 +3783,9 @@
           <t>1kg</t>
         </is>
       </c>
+      <c r="K67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3631,6 +3834,9 @@
           <t>500g</t>
         </is>
       </c>
+      <c r="K68" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3679,6 +3885,9 @@
           <t>320g</t>
         </is>
       </c>
+      <c r="K69" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3727,6 +3936,9 @@
           <t xml:space="preserve">1½kg boneless </t>
         </is>
       </c>
+      <c r="K70" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3775,6 +3987,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K71" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3823,6 +4038,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K72" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3871,6 +4089,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K73" t="n">
+        <v>0.0025</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3915,6 +4136,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K74" t="n">
+        <v>0.01666666666666667</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3959,6 +4183,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K75" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4007,6 +4234,9 @@
           <t xml:space="preserve">432g can </t>
         </is>
       </c>
+      <c r="K76" t="n">
+        <v>0.07199999999999999</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4051,6 +4281,9 @@
           <t>2 tsp</t>
         </is>
       </c>
+      <c r="K77" t="n">
+        <v>0.001642973333333333</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4095,6 +4328,9 @@
           <t>2 tsp</t>
         </is>
       </c>
+      <c r="K78" t="n">
+        <v>0.001642973333333333</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4139,6 +4375,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K79" t="n">
+        <v>0.0008214866666666666</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4183,6 +4422,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K80" t="n">
+        <v>0.0008214866666666666</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4231,6 +4473,9 @@
           <t xml:space="preserve">grating of fresh </t>
         </is>
       </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4279,6 +4524,9 @@
           <t>2½ tbsp</t>
         </is>
       </c>
+      <c r="K82" t="n">
+        <v>0.006249999999999999</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4327,6 +4575,9 @@
           <t>1kg</t>
         </is>
       </c>
+      <c r="K83" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4375,6 +4626,9 @@
           <t>100g</t>
         </is>
       </c>
+      <c r="K84" t="n">
+        <v>0.01666666666666667</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4423,6 +4677,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K85" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4467,6 +4724,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K86" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4515,6 +4775,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K87" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4563,6 +4826,9 @@
           <t>3 tbsp</t>
         </is>
       </c>
+      <c r="K88" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4611,6 +4877,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K89" t="n">
+        <v>0.0025</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4659,6 +4928,9 @@
           <t>150ml</t>
         </is>
       </c>
+      <c r="K90" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4703,6 +4975,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K91" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4751,6 +5026,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K92" t="n">
+        <v>0.01666666666666667</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4799,6 +5077,9 @@
           <t>375g</t>
         </is>
       </c>
+      <c r="K93" t="n">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4847,6 +5128,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K94" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4895,6 +5179,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K95" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4943,6 +5230,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K96" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4991,6 +5281,9 @@
           <t>400g can</t>
         </is>
       </c>
+      <c r="K97" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5039,6 +5332,9 @@
           <t>100ml</t>
         </is>
       </c>
+      <c r="K98" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5087,6 +5383,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K99" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5135,6 +5434,9 @@
           <t>3 tbsp</t>
         </is>
       </c>
+      <c r="K100" t="n">
+        <v>0.0225</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5179,6 +5481,9 @@
           <t>½ tbsp</t>
         </is>
       </c>
+      <c r="K101" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5227,6 +5532,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K102" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5275,6 +5583,9 @@
           <t>1½ tbsp</t>
         </is>
       </c>
+      <c r="K103" t="n">
+        <v>0.005625</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5323,6 +5634,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K104" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5371,6 +5685,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K105" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5419,6 +5736,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K106" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5463,6 +5783,9 @@
           <t>½ tsp</t>
         </is>
       </c>
+      <c r="K107" t="n">
+        <v>0.000616115</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5511,6 +5834,9 @@
           <t>2 x 400g cans chopped</t>
         </is>
       </c>
+      <c r="K108" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5559,6 +5885,9 @@
           <t>100g</t>
         </is>
       </c>
+      <c r="K109" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5603,6 +5932,9 @@
           <t>500ml</t>
         </is>
       </c>
+      <c r="K110" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5651,6 +5983,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="K111" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5699,6 +6034,9 @@
           <t>150g</t>
         </is>
       </c>
+      <c r="K112" t="n">
+        <v>0.0375</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5747,6 +6085,9 @@
           <t>½ small bunch of</t>
         </is>
       </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5791,6 +6132,9 @@
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5839,6 +6183,9 @@
           <t>400g</t>
         </is>
       </c>
+      <c r="K115" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5887,6 +6234,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K116" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5931,6 +6281,9 @@
           <t>½ tbsp dried</t>
         </is>
       </c>
+      <c r="K117" t="n">
+        <v>0.001875</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5979,6 +6332,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K118" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6023,6 +6379,9 @@
           <t>½ tsp</t>
         </is>
       </c>
+      <c r="K119" t="n">
+        <v>0.000616115</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6067,6 +6426,9 @@
           <t>100ml</t>
         </is>
       </c>
+      <c r="K120" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6115,6 +6477,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K121" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6163,6 +6528,9 @@
           <t>½</t>
         </is>
       </c>
+      <c r="K122" t="n">
+        <v>0.0125</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6211,6 +6579,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K123" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6259,6 +6630,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K124" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6299,6 +6673,9 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6343,6 +6720,9 @@
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6391,6 +6771,9 @@
           <t>70g</t>
         </is>
       </c>
+      <c r="K127" t="n">
+        <v>0.01166666666666667</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6439,6 +6822,9 @@
           <t>70g</t>
         </is>
       </c>
+      <c r="K128" t="n">
+        <v>0.01166666666666667</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6487,6 +6873,9 @@
           <t>1l</t>
         </is>
       </c>
+      <c r="K129" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6531,6 +6920,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K130" t="n">
+        <v>0.01666666666666667</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6579,6 +6971,9 @@
           <t>80g</t>
         </is>
       </c>
+      <c r="K131" t="n">
+        <v>0.01333333333333333</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6623,6 +7018,9 @@
           <t>2 tsp</t>
         </is>
       </c>
+      <c r="K132" t="n">
+        <v>0.001642973333333333</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6667,6 +7065,9 @@
           <t xml:space="preserve">pinch of </t>
         </is>
       </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6715,6 +7116,9 @@
           <t>600g</t>
         </is>
       </c>
+      <c r="K134" t="n">
+        <v>0.09999999999999999</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6763,6 +7167,9 @@
           <t>250g</t>
         </is>
       </c>
+      <c r="K135" t="n">
+        <v>0.04166666666666666</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6811,6 +7218,9 @@
           <t xml:space="preserve">1 whole </t>
         </is>
       </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6859,6 +7269,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K137" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6907,6 +7320,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="K138" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6955,6 +7371,9 @@
           <t>50g</t>
         </is>
       </c>
+      <c r="K139" t="n">
+        <v>0.008333333333333333</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7003,6 +7422,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K140" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7051,6 +7473,9 @@
           <t>25g</t>
         </is>
       </c>
+      <c r="K141" t="n">
+        <v>0.0125</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7099,6 +7524,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K142" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7147,6 +7575,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K143" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7195,6 +7626,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K144" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7239,6 +7673,9 @@
           <t>small handful of</t>
         </is>
       </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7287,6 +7724,9 @@
           <t>500g Maris Piper or</t>
         </is>
       </c>
+      <c r="K146" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7335,6 +7775,9 @@
           <t>10 pitted</t>
         </is>
       </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7383,6 +7826,9 @@
           <t>100ml chicken or</t>
         </is>
       </c>
+      <c r="K148" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7431,6 +7877,9 @@
           <t>350g</t>
         </is>
       </c>
+      <c r="K149" t="n">
+        <v>0.08750000000000001</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7479,6 +7928,9 @@
           <t>200ml</t>
         </is>
       </c>
+      <c r="K150" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7527,6 +7979,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K151" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7575,6 +8030,9 @@
           <t>400g</t>
         </is>
       </c>
+      <c r="K152" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7623,6 +8081,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K153" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7667,6 +8128,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K154" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7715,6 +8179,9 @@
           <t>150ml</t>
         </is>
       </c>
+      <c r="K155" t="n">
+        <v>0.0375</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7763,6 +8230,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K156" t="n">
+        <v>0.00123223</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7811,6 +8281,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K157" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7859,6 +8332,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K158" t="n">
+        <v>0.00123223</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7907,6 +8383,9 @@
           <t>250g</t>
         </is>
       </c>
+      <c r="K159" t="n">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7955,6 +8434,9 @@
           <t>240g</t>
         </is>
       </c>
+      <c r="K160" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8003,6 +8485,9 @@
           <t>knob of</t>
         </is>
       </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8051,6 +8536,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K162" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8099,6 +8587,9 @@
           <t>140g</t>
         </is>
       </c>
+      <c r="K163" t="n">
+        <v>0.04666666666666667</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8147,6 +8638,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K164" t="n">
+        <v>0.06666666666666667</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8195,6 +8689,9 @@
           <t>140g</t>
         </is>
       </c>
+      <c r="K165" t="n">
+        <v>0.04666666666666667</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8239,6 +8736,9 @@
           <t>½</t>
         </is>
       </c>
+      <c r="K166" t="n">
+        <v>0.01666666666666667</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8283,6 +8783,9 @@
           <t>small bunch of</t>
         </is>
       </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8331,6 +8834,9 @@
           <t>650ml</t>
         </is>
       </c>
+      <c r="K168" t="n">
+        <v>0.1083333333333333</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8379,6 +8885,9 @@
           <t>40g</t>
         </is>
       </c>
+      <c r="K169" t="n">
+        <v>0.006666666666666667</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8427,6 +8936,9 @@
           <t>40g</t>
         </is>
       </c>
+      <c r="K170" t="n">
+        <v>0.006666666666666667</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8471,6 +8983,9 @@
           <t>2 tsp</t>
         </is>
       </c>
+      <c r="K171" t="n">
+        <v>0.001642973333333333</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8519,6 +9034,9 @@
           <t>150g</t>
         </is>
       </c>
+      <c r="K172" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8567,6 +9085,9 @@
           <t>180g</t>
         </is>
       </c>
+      <c r="K173" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8611,6 +9132,9 @@
           <t xml:space="preserve">handful of </t>
         </is>
       </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8659,6 +9183,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K175" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8707,6 +9234,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K176" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8751,6 +9281,9 @@
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8799,6 +9332,9 @@
           <t>350g</t>
         </is>
       </c>
+      <c r="K178" t="n">
+        <v>0.1166666666666667</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -8843,6 +9379,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K179" t="n">
+        <v>0.001642973333333333</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -8887,6 +9426,9 @@
           <t>1 tsp</t>
         </is>
       </c>
+      <c r="K180" t="n">
+        <v>0.001642973333333333</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8935,6 +9477,9 @@
           <t xml:space="preserve">1½ tbsp </t>
         </is>
       </c>
+      <c r="K181" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8983,6 +9528,9 @@
           <t xml:space="preserve">1 large </t>
         </is>
       </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9031,6 +9579,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="K183" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9079,6 +9630,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K184" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9127,6 +9681,9 @@
           <t xml:space="preserve">2 x 400g cans chopped </t>
         </is>
       </c>
+      <c r="K185" t="n">
+        <v>0.2666666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9175,6 +9732,9 @@
           <t>2 tsp</t>
         </is>
       </c>
+      <c r="K186" t="n">
+        <v>0.003285946666666666</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9223,6 +9783,9 @@
           <t xml:space="preserve">150g ball </t>
         </is>
       </c>
+      <c r="K187" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9271,6 +9834,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K188" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9319,6 +9885,9 @@
           <t>25g</t>
         </is>
       </c>
+      <c r="K189" t="n">
+        <v>0.008333333333333333</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9363,6 +9932,9 @@
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9411,6 +9983,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K191" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9459,6 +10034,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K192" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9503,6 +10081,9 @@
           <t>1½ tbsp</t>
         </is>
       </c>
+      <c r="K193" t="n">
+        <v>0.005625</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9551,6 +10132,9 @@
           <t>8</t>
         </is>
       </c>
+      <c r="K194" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9595,6 +10179,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K195" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9643,6 +10230,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K196" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9687,6 +10277,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K197" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -9735,6 +10328,9 @@
           <t>125g</t>
         </is>
       </c>
+      <c r="K198" t="n">
+        <v>0.03125</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -9783,6 +10379,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K199" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -9831,6 +10430,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="K200" t="n">
+        <v>0.07500000000000001</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -9879,6 +10481,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K201" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -9927,6 +10532,9 @@
           <t>700g</t>
         </is>
       </c>
+      <c r="K202" t="n">
+        <v>0.2333333333333334</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -9975,6 +10583,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K203" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10023,6 +10634,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K204" t="n">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10071,6 +10685,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K205" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10115,6 +10732,9 @@
           <t xml:space="preserve">small bunch of </t>
         </is>
       </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10159,6 +10779,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K207" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10203,6 +10826,9 @@
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10247,6 +10873,9 @@
           <t xml:space="preserve">½ tsp </t>
         </is>
       </c>
+      <c r="K209" t="n">
+        <v>0.0008214866666666666</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10295,6 +10924,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K210" t="n">
+        <v>0.09999999999999999</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10343,6 +10975,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K211" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10391,6 +11026,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K212" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -10435,6 +11073,9 @@
           <t>3 tbsp</t>
         </is>
       </c>
+      <c r="K213" t="n">
+        <v>0.0225</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10483,6 +11124,9 @@
           <t xml:space="preserve">400g can </t>
         </is>
       </c>
+      <c r="K214" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -10531,6 +11175,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K215" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -10579,6 +11226,9 @@
           <t xml:space="preserve">1 large or 2 small </t>
         </is>
       </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -10623,6 +11273,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K217" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -10667,6 +11320,9 @@
         </is>
       </c>
       <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -10715,6 +11371,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K219" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -10759,6 +11418,9 @@
           <t>1 thumb-sized piece</t>
         </is>
       </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -10807,6 +11469,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K221" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -10855,6 +11520,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K222" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -10899,6 +11567,9 @@
           <t>2-3 tbsp</t>
         </is>
       </c>
+      <c r="K223" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -10947,6 +11618,9 @@
           <t>400g can chopped</t>
         </is>
       </c>
+      <c r="K224" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -10995,6 +11669,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K225" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -11043,6 +11720,9 @@
           <t>½ tbsp</t>
         </is>
       </c>
+      <c r="K226" t="n">
+        <v>0.001875</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -11087,6 +11767,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="K227" t="n">
+        <v>0.07500000000000001</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11135,6 +11818,9 @@
           <t>200g</t>
         </is>
       </c>
+      <c r="K228" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -11183,6 +11869,9 @@
           <t>3 tbsp</t>
         </is>
       </c>
+      <c r="K229" t="n">
+        <v>0.01125</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -11231,6 +11920,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K230" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -11279,6 +11971,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K231" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -11323,6 +12018,9 @@
           <t>½ bunch of</t>
         </is>
       </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -11367,6 +12065,9 @@
         </is>
       </c>
       <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -11415,6 +12116,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="K234" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -11463,6 +12167,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K235" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -11507,6 +12214,9 @@
           <t>4 tbsp</t>
         </is>
       </c>
+      <c r="K236" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -11551,6 +12261,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K237" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -11599,6 +12312,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="K238" t="n">
+        <v>0.07500000000000001</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -11647,6 +12363,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K239" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -11691,6 +12410,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K240" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -11739,6 +12461,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K241" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -11787,6 +12512,9 @@
           <t>50ml</t>
         </is>
       </c>
+      <c r="K242" t="n">
+        <v>0.0125</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -11831,6 +12559,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K243" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -11879,6 +12610,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="K244" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -11927,6 +12661,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K245" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -11975,6 +12712,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K246" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -12023,6 +12763,9 @@
           <t>300g</t>
         </is>
       </c>
+      <c r="K247" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -12071,6 +12814,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K248" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -12119,6 +12865,9 @@
           <t>1 large bunch of</t>
         </is>
       </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -12167,6 +12916,9 @@
           <t>1 large</t>
         </is>
       </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -12215,6 +12967,9 @@
           <t>2 tbsp</t>
         </is>
       </c>
+      <c r="K251" t="n">
+        <v>0.0075</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -12263,6 +13018,9 @@
           <t>1 tbsp</t>
         </is>
       </c>
+      <c r="K252" t="n">
+        <v>0.00375</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -12311,6 +13069,9 @@
           <t>50g</t>
         </is>
       </c>
+      <c r="K253" t="n">
+        <v>0.0125</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -12358,6 +13119,9 @@
         <is>
           <t>200g</t>
         </is>
+      </c>
+      <c r="K254" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/project/DB/all_list_database.xlsx
+++ b/project/DB/all_list_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:O254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,27 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>kg_quantities_per_portion</t>
+          <t>quantities_per_portion_kg</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>carbon_emission_per_ingredient_kg</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>total_carbon_emission_per_portion_kg</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>land_use_per_ingredient_m^2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>total_land_per_portion_kg</t>
         </is>
       </c>
     </row>
@@ -534,6 +554,18 @@
       </c>
       <c r="K2" t="n">
         <v>0.01</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.211459166133333</v>
       </c>
     </row>
     <row r="3">
@@ -586,6 +618,18 @@
       <c r="K3" t="n">
         <v>0.01666666666666667</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -637,6 +681,18 @@
       <c r="K4" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -684,6 +740,18 @@
       <c r="K5" t="n">
         <v>0.0002053716666666667</v>
       </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -735,6 +803,18 @@
       <c r="K6" t="n">
         <v>0.1333333333333333</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.2786666666666666</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -786,6 +866,18 @@
       <c r="K7" t="n">
         <v>0.0008214866666666666</v>
       </c>
+      <c r="L7" t="n">
+        <v>0.002628757333333333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0016758328</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -837,6 +929,18 @@
       <c r="K8" t="n">
         <v>0.015</v>
       </c>
+      <c r="L8" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.31685</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -888,6 +992,18 @@
       <c r="K9" t="n">
         <v>0.06666666666666667</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.6579999999999999</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8146666666666667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -939,6 +1055,18 @@
       <c r="K10" t="n">
         <v>0.05</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -990,6 +1118,18 @@
       <c r="K11" t="n">
         <v>0.01166666666666667</v>
       </c>
+      <c r="L11" t="n">
+        <v>0.2786</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.024216666666667</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1041,6 +1181,18 @@
       <c r="K12" t="n">
         <v>0.008333333333333333</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.7315833333333334</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1088,6 +1240,18 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.883895424</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.211459166133333</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1139,6 +1303,18 @@
       <c r="K14" t="n">
         <v>0.03</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.3693</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5207999999999999</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1190,6 +1366,18 @@
       <c r="K15" t="n">
         <v>0.025</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1241,6 +1429,18 @@
       <c r="K16" t="n">
         <v>0.05</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1288,6 +1488,18 @@
       <c r="K17" t="n">
         <v>0.00123223</v>
       </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1339,6 +1551,18 @@
       <c r="K18" t="n">
         <v>0.02</v>
       </c>
+      <c r="L18" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1390,6 +1614,18 @@
       <c r="K19" t="n">
         <v>0.15</v>
       </c>
+      <c r="L19" t="n">
+        <v>1.4805</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1441,6 +1677,18 @@
       <c r="K20" t="n">
         <v>0.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1492,6 +1740,18 @@
       <c r="K21" t="n">
         <v>0.025</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.24675</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3055</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1543,6 +1803,18 @@
       <c r="K22" t="n">
         <v>0.025</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1590,6 +1862,18 @@
       <c r="K23" t="n">
         <v>0</v>
       </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.3946</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.80605</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1641,6 +1925,18 @@
       <c r="K24" t="n">
         <v>0.05000000000000001</v>
       </c>
+      <c r="L24" t="n">
+        <v>0.02650000000000001</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6307666666666666</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.060725</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1692,6 +1988,18 @@
       <c r="K25" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.01766666666666667</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6307666666666666</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.01266666666666667</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.060725</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1743,6 +2051,18 @@
       <c r="K26" t="n">
         <v>0.02</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6307666666666666</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.060725</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1794,6 +2114,18 @@
       <c r="K27" t="n">
         <v>0.05</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6307666666666666</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.060725</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1845,6 +2177,18 @@
       <c r="K28" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.4974999999999999</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6307666666666666</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.828958333333333</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.060725</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1896,6 +2240,18 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6307666666666666</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.060725</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1947,6 +2303,18 @@
       <c r="K30" t="n">
         <v>0.05</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1998,6 +2366,18 @@
       <c r="K31" t="n">
         <v>0.08</v>
       </c>
+      <c r="L31" t="n">
+        <v>0.0784</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2049,6 +2429,18 @@
       <c r="K32" t="n">
         <v>0.025</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.04475000000000001</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.38925</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2100,6 +2492,18 @@
       <c r="K33" t="n">
         <v>0.15</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.05850000000000001</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2147,6 +2551,18 @@
       <c r="K34" t="n">
         <v>0.00123223</v>
       </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2194,6 +2610,18 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2241,6 +2669,18 @@
       <c r="K36" t="n">
         <v>0.00492892</v>
       </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2292,6 +2732,18 @@
       <c r="K37" t="n">
         <v>0</v>
       </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2343,6 +2795,18 @@
       <c r="K38" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.003975</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2394,6 +2858,18 @@
       <c r="K39" t="n">
         <v>0.1</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2445,6 +2921,18 @@
       <c r="K40" t="n">
         <v>0.14</v>
       </c>
+      <c r="L40" t="n">
+        <v>1.9082</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.799825</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.1774</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.9918</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2496,6 +2984,18 @@
       <c r="K41" t="n">
         <v>0.25</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2547,6 +3047,18 @@
       <c r="K42" t="n">
         <v>0.015</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.00795</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2598,6 +3110,18 @@
       <c r="K43" t="n">
         <v>0.15</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.05850000000000001</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2641,6 +3165,18 @@
       <c r="K44" t="n">
         <v>0</v>
       </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2688,6 +3224,18 @@
       <c r="K45" t="n">
         <v>0.0225</v>
       </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2735,6 +3283,18 @@
       <c r="K46" t="n">
         <v>0.0225</v>
       </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2786,6 +3346,18 @@
       <c r="K47" t="n">
         <v>0.1</v>
       </c>
+      <c r="L47" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.42895</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.0202</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2837,6 +3409,18 @@
       <c r="K48" t="n">
         <v>0.1</v>
       </c>
+      <c r="L48" t="n">
+        <v>0.04600000000000001</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="O48" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2888,6 +3472,18 @@
       <c r="K49" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L49" t="n">
+        <v>0.023625</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06712499999999999</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2939,6 +3535,18 @@
       <c r="K50" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L50" t="n">
+        <v>0.011775</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.028875</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2990,6 +3598,18 @@
       <c r="K51" t="n">
         <v>0.1</v>
       </c>
+      <c r="L51" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3037,6 +3657,18 @@
       <c r="K52" t="n">
         <v>0.00123223</v>
       </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3088,6 +3720,18 @@
       <c r="K53" t="n">
         <v>0.05</v>
       </c>
+      <c r="L53" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.389500000000001</v>
+      </c>
+      <c r="O53" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3139,6 +3783,18 @@
       <c r="K54" t="n">
         <v>0.1</v>
       </c>
+      <c r="L54" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.8410000000000001</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3190,6 +3846,18 @@
       <c r="K55" t="n">
         <v>0.025</v>
       </c>
+      <c r="L55" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1865</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3241,6 +3909,18 @@
       <c r="K56" t="n">
         <v>0.025</v>
       </c>
+      <c r="L56" t="n">
+        <v>0.01325</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.009500000000000001</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3292,6 +3972,18 @@
       <c r="K57" t="n">
         <v>0.05</v>
       </c>
+      <c r="L57" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3343,6 +4035,18 @@
       <c r="K58" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L58" t="n">
+        <v>0.1791</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.658425</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3390,6 +4094,18 @@
       <c r="K59" t="n">
         <v>0</v>
       </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.195250000000001</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.183425000000001</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3437,6 +4153,18 @@
       <c r="K60" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3484,6 +4212,18 @@
       <c r="K61" t="n">
         <v>0.05</v>
       </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3535,6 +4275,18 @@
       <c r="K62" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L62" t="n">
+        <v>0.1791</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.658425</v>
+      </c>
+      <c r="O62" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3586,6 +4338,18 @@
       <c r="K63" t="n">
         <v>0.025</v>
       </c>
+      <c r="L63" t="n">
+        <v>0.03925000000000001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.09625</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3633,6 +4397,18 @@
       <c r="K64" t="n">
         <v>0.00246446</v>
       </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3684,6 +4460,18 @@
       <c r="K65" t="n">
         <v>0.025</v>
       </c>
+      <c r="L65" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3735,6 +4523,18 @@
       <c r="K66" t="n">
         <v>0.005625</v>
       </c>
+      <c r="L66" t="n">
+        <v>0.00298125</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0021375</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3786,6 +4586,18 @@
       <c r="K67" t="n">
         <v>0.25</v>
       </c>
+      <c r="L67" t="n">
+        <v>2.4675</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3837,6 +4649,18 @@
       <c r="K68" t="n">
         <v>0.125</v>
       </c>
+      <c r="L68" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O68" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3888,6 +4712,18 @@
       <c r="K69" t="n">
         <v>0.08</v>
       </c>
+      <c r="L69" t="n">
+        <v>0.1432</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.89928125</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.2456</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5.1889125</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3939,6 +4775,18 @@
       <c r="K70" t="n">
         <v>0.25</v>
       </c>
+      <c r="L70" t="n">
+        <v>3.0775</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O70" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3990,6 +4838,18 @@
       <c r="K71" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L71" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4041,6 +4901,18 @@
       <c r="K72" t="n">
         <v>0.005</v>
       </c>
+      <c r="L72" t="n">
+        <v>0.01045</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O72" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4092,6 +4964,18 @@
       <c r="K73" t="n">
         <v>0.0025</v>
       </c>
+      <c r="L73" t="n">
+        <v>0.001325</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="O73" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4139,6 +5023,18 @@
       <c r="K74" t="n">
         <v>0.01666666666666667</v>
       </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4186,6 +5082,18 @@
       <c r="K75" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4237,6 +5145,18 @@
       <c r="K76" t="n">
         <v>0.07199999999999999</v>
       </c>
+      <c r="L76" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.06408</v>
+      </c>
+      <c r="O76" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4284,6 +5204,18 @@
       <c r="K77" t="n">
         <v>0.001642973333333333</v>
       </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4331,6 +5263,18 @@
       <c r="K78" t="n">
         <v>0.001642973333333333</v>
       </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4378,6 +5322,18 @@
       <c r="K79" t="n">
         <v>0.0008214866666666666</v>
       </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4425,6 +5381,18 @@
       <c r="K80" t="n">
         <v>0.0008214866666666666</v>
       </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4476,6 +5444,18 @@
       <c r="K81" t="n">
         <v>0</v>
       </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3.181541666666667</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>4.422029999999999</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4527,6 +5507,18 @@
       <c r="K82" t="n">
         <v>0.006249999999999999</v>
       </c>
+      <c r="L82" t="n">
+        <v>0.0033125</v>
+      </c>
+      <c r="M82" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.002375</v>
+      </c>
+      <c r="O82" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4578,6 +5570,18 @@
       <c r="K83" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="L83" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="M83" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N83" t="n">
+        <v>54.36833333333333</v>
+      </c>
+      <c r="O83" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4629,6 +5633,18 @@
       <c r="K84" t="n">
         <v>0.01666666666666667</v>
       </c>
+      <c r="L84" t="n">
+        <v>0.2051666666666667</v>
+      </c>
+      <c r="M84" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.2893333333333333</v>
+      </c>
+      <c r="O84" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4680,6 +5696,18 @@
       <c r="K85" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L85" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="M85" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O85" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4727,6 +5755,18 @@
       <c r="K86" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4778,6 +5818,18 @@
       <c r="K87" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L87" t="n">
+        <v>0.01766666666666667</v>
+      </c>
+      <c r="M87" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.01266666666666667</v>
+      </c>
+      <c r="O87" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4829,6 +5881,18 @@
       <c r="K88" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L88" t="n">
+        <v>0.011775</v>
+      </c>
+      <c r="M88" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.028875</v>
+      </c>
+      <c r="O88" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4880,6 +5944,18 @@
       <c r="K89" t="n">
         <v>0.0025</v>
       </c>
+      <c r="L89" t="n">
+        <v>0.005225</v>
+      </c>
+      <c r="M89" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O89" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4931,6 +6007,18 @@
       <c r="K90" t="n">
         <v>0.025</v>
       </c>
+      <c r="L90" t="n">
+        <v>0.04475</v>
+      </c>
+      <c r="M90" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="O90" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4978,6 +6066,18 @@
       <c r="K91" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5029,6 +6129,18 @@
       <c r="K92" t="n">
         <v>0.01666666666666667</v>
       </c>
+      <c r="L92" t="n">
+        <v>0.07783333333333334</v>
+      </c>
+      <c r="M92" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="O92" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5080,6 +6192,18 @@
       <c r="K93" t="n">
         <v>0.0625</v>
       </c>
+      <c r="L93" t="n">
+        <v>0.098125</v>
+      </c>
+      <c r="M93" t="n">
+        <v>17.06052083333333</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.240625</v>
+      </c>
+      <c r="O93" t="n">
+        <v>55.10620833333333</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5131,6 +6255,18 @@
       <c r="K94" t="n">
         <v>0.015</v>
       </c>
+      <c r="L94" t="n">
+        <v>0.00795</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="O94" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5182,6 +6318,18 @@
       <c r="K95" t="n">
         <v>0.05</v>
       </c>
+      <c r="L95" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O95" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5233,6 +6381,18 @@
       <c r="K96" t="n">
         <v>0.05</v>
       </c>
+      <c r="L96" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O96" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5284,6 +6444,18 @@
       <c r="K97" t="n">
         <v>0.2</v>
       </c>
+      <c r="L97" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="O97" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5335,6 +6507,18 @@
       <c r="K98" t="n">
         <v>0.05</v>
       </c>
+      <c r="L98" t="n">
+        <v>0.4935</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.6110000000000001</v>
+      </c>
+      <c r="O98" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5386,6 +6570,18 @@
       <c r="K99" t="n">
         <v>0.1</v>
       </c>
+      <c r="L99" t="n">
+        <v>0.05300000000000001</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.03800000000000001</v>
+      </c>
+      <c r="O99" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5437,6 +6633,18 @@
       <c r="K100" t="n">
         <v>0.0225</v>
       </c>
+      <c r="L100" t="n">
+        <v>0.07087499999999999</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.201375</v>
+      </c>
+      <c r="O100" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5484,6 +6692,18 @@
       <c r="K101" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5535,6 +6755,18 @@
       <c r="K102" t="n">
         <v>0.1</v>
       </c>
+      <c r="L102" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.264325</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="O102" t="n">
+        <v>5.745075</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5586,6 +6818,18 @@
       <c r="K103" t="n">
         <v>0.005625</v>
       </c>
+      <c r="L103" t="n">
+        <v>0.00298125</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.0021375</v>
+      </c>
+      <c r="O103" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5637,6 +6881,18 @@
       <c r="K104" t="n">
         <v>0.025</v>
       </c>
+      <c r="L104" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="O104" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5688,6 +6944,18 @@
       <c r="K105" t="n">
         <v>0.05</v>
       </c>
+      <c r="L105" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O105" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5739,6 +7007,18 @@
       <c r="K106" t="n">
         <v>0.025</v>
       </c>
+      <c r="L106" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="O106" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5786,6 +7066,18 @@
       <c r="K107" t="n">
         <v>0.000616115</v>
       </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5837,6 +7129,18 @@
       <c r="K108" t="n">
         <v>0.2</v>
       </c>
+      <c r="L108" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O108" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5888,6 +7192,18 @@
       <c r="K109" t="n">
         <v>0.025</v>
       </c>
+      <c r="L109" t="n">
+        <v>0.11125</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="O109" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5935,6 +7251,18 @@
       <c r="K110" t="n">
         <v>0.125</v>
       </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5986,6 +7314,18 @@
       <c r="K111" t="n">
         <v>0.3</v>
       </c>
+      <c r="L111" t="n">
+        <v>3.693000000000001</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N111" t="n">
+        <v>5.208</v>
+      </c>
+      <c r="O111" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6037,6 +7377,18 @@
       <c r="K112" t="n">
         <v>0.0375</v>
       </c>
+      <c r="L112" t="n">
+        <v>0.019875</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.01425</v>
+      </c>
+      <c r="O112" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6088,6 +7440,18 @@
       <c r="K113" t="n">
         <v>0</v>
       </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6135,6 +7499,18 @@
       <c r="K114" t="n">
         <v>0</v>
       </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4.296606250000001</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>5.4928875</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6186,6 +7562,18 @@
       <c r="K115" t="n">
         <v>0.1</v>
       </c>
+      <c r="L115" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6237,6 +7625,18 @@
       <c r="K116" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L116" t="n">
+        <v>0.0019875</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.001425</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6284,6 +7684,18 @@
       <c r="K117" t="n">
         <v>0.001875</v>
       </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6335,6 +7747,18 @@
       <c r="K118" t="n">
         <v>0.025</v>
       </c>
+      <c r="L118" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6382,6 +7806,18 @@
       <c r="K119" t="n">
         <v>0.000616115</v>
       </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6429,6 +7865,18 @@
       <c r="K120" t="n">
         <v>0.025</v>
       </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6480,6 +7928,18 @@
       <c r="K121" t="n">
         <v>0.025</v>
       </c>
+      <c r="L121" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6531,6 +7991,18 @@
       <c r="K122" t="n">
         <v>0.0125</v>
       </c>
+      <c r="L122" t="n">
+        <v>0.013125</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.011125</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6582,6 +8054,18 @@
       <c r="K123" t="n">
         <v>0.05</v>
       </c>
+      <c r="L123" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6633,6 +8117,18 @@
       <c r="K124" t="n">
         <v>0.05</v>
       </c>
+      <c r="L124" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6676,6 +8172,18 @@
       <c r="K125" t="n">
         <v>0</v>
       </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6723,6 +8231,18 @@
       <c r="K126" t="n">
         <v>0</v>
       </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.3213625</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1.8178</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6774,6 +8294,18 @@
       <c r="K127" t="n">
         <v>0.01166666666666667</v>
       </c>
+      <c r="L127" t="n">
+        <v>0.03675</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.1044166666666667</v>
+      </c>
+      <c r="O127" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6825,6 +8357,18 @@
       <c r="K128" t="n">
         <v>0.01166666666666667</v>
       </c>
+      <c r="L128" t="n">
+        <v>0.01831666666666667</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.04491666666666667</v>
+      </c>
+      <c r="O128" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6876,6 +8420,18 @@
       <c r="K129" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="L129" t="n">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="M129" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1.491666666666666</v>
+      </c>
+      <c r="O129" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6923,6 +8479,18 @@
       <c r="K130" t="n">
         <v>0.01666666666666667</v>
       </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6974,6 +8542,18 @@
       <c r="K131" t="n">
         <v>0.01333333333333333</v>
       </c>
+      <c r="L131" t="n">
+        <v>0.3184</v>
+      </c>
+      <c r="M131" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.170533333333333</v>
+      </c>
+      <c r="O131" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7021,6 +8601,18 @@
       <c r="K132" t="n">
         <v>0.001642973333333333</v>
       </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7068,6 +8660,18 @@
       <c r="K133" t="n">
         <v>0</v>
       </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7119,6 +8723,18 @@
       <c r="K134" t="n">
         <v>0.09999999999999999</v>
       </c>
+      <c r="L134" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O134" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7170,6 +8786,18 @@
       <c r="K135" t="n">
         <v>0.04166666666666666</v>
       </c>
+      <c r="L135" t="n">
+        <v>0.9949999999999999</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3.657916666666667</v>
+      </c>
+      <c r="O135" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7221,6 +8849,18 @@
       <c r="K136" t="n">
         <v>0</v>
       </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7272,6 +8912,18 @@
       <c r="K137" t="n">
         <v>0.05</v>
       </c>
+      <c r="L137" t="n">
+        <v>0.6154999999999999</v>
+      </c>
+      <c r="M137" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.8679999999999999</v>
+      </c>
+      <c r="O137" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7323,6 +8975,18 @@
       <c r="K138" t="n">
         <v>0.2</v>
       </c>
+      <c r="L138" t="n">
+        <v>0.3140000000000001</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.7700000000000001</v>
+      </c>
+      <c r="O138" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7374,6 +9038,18 @@
       <c r="K139" t="n">
         <v>0.008333333333333333</v>
       </c>
+      <c r="L139" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="M139" t="n">
+        <v>3.074966666666667</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.7315833333333334</v>
+      </c>
+      <c r="O139" t="n">
+        <v>8.877033333333333</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7425,6 +9101,18 @@
       <c r="K140" t="n">
         <v>0.05</v>
       </c>
+      <c r="L140" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="M140" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N140" t="n">
+        <v>18.4905</v>
+      </c>
+      <c r="O140" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7476,6 +9164,18 @@
       <c r="K141" t="n">
         <v>0.0125</v>
       </c>
+      <c r="L141" t="n">
+        <v>0.039375</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.111875</v>
+      </c>
+      <c r="O141" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7527,6 +9227,18 @@
       <c r="K142" t="n">
         <v>0.05</v>
       </c>
+      <c r="L142" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M142" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O142" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7578,6 +9290,18 @@
       <c r="K143" t="n">
         <v>0.05</v>
       </c>
+      <c r="L143" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M143" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O143" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7629,6 +9353,18 @@
       <c r="K144" t="n">
         <v>0.05</v>
       </c>
+      <c r="L144" t="n">
+        <v>0.6815000000000001</v>
+      </c>
+      <c r="M144" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="O144" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7676,6 +9412,18 @@
       <c r="K145" t="n">
         <v>0</v>
       </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7727,6 +9475,18 @@
       <c r="K146" t="n">
         <v>0.25</v>
       </c>
+      <c r="L146" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M146" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O146" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7778,6 +9538,18 @@
       <c r="K147" t="n">
         <v>0</v>
       </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7829,6 +9601,18 @@
       <c r="K148" t="n">
         <v>0.05</v>
       </c>
+      <c r="L148" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="M148" t="n">
+        <v>4.857875</v>
+      </c>
+      <c r="N148" t="n">
+        <v>18.4905</v>
+      </c>
+      <c r="O148" t="n">
+        <v>37.772375</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7880,6 +9664,18 @@
       <c r="K149" t="n">
         <v>0.08750000000000001</v>
       </c>
+      <c r="L149" t="n">
+        <v>0.04025000000000001</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.07700000000000001</v>
+      </c>
+      <c r="O149" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7931,6 +9727,18 @@
       <c r="K150" t="n">
         <v>0.05</v>
       </c>
+      <c r="L150" t="n">
+        <v>0.1575</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.4475</v>
+      </c>
+      <c r="O150" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7982,6 +9790,18 @@
       <c r="K151" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L151" t="n">
+        <v>0.011775</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.028875</v>
+      </c>
+      <c r="O151" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -8033,6 +9853,18 @@
       <c r="K152" t="n">
         <v>0.1</v>
       </c>
+      <c r="L152" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.8410000000000001</v>
+      </c>
+      <c r="O152" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -8084,6 +9916,18 @@
       <c r="K153" t="n">
         <v>0.1</v>
       </c>
+      <c r="L153" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.03900000000000001</v>
+      </c>
+      <c r="O153" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -8131,6 +9975,18 @@
       <c r="K154" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -8182,6 +10038,18 @@
       <c r="K155" t="n">
         <v>0.0375</v>
       </c>
+      <c r="L155" t="n">
+        <v>0.118125</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.335625</v>
+      </c>
+      <c r="O155" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -8233,6 +10101,18 @@
       <c r="K156" t="n">
         <v>0.00123223</v>
       </c>
+      <c r="L156" t="n">
+        <v>0.0022056917</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.0191858211</v>
+      </c>
+      <c r="O156" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8284,6 +10164,18 @@
       <c r="K157" t="n">
         <v>0.05</v>
       </c>
+      <c r="L157" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="O157" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8335,6 +10227,18 @@
       <c r="K158" t="n">
         <v>0.00123223</v>
       </c>
+      <c r="L158" t="n">
+        <v>0.0006530819</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.0004682474</v>
+      </c>
+      <c r="O158" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8386,6 +10290,18 @@
       <c r="K159" t="n">
         <v>0.0625</v>
       </c>
+      <c r="L159" t="n">
+        <v>0.033125</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.8256337736</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.02375</v>
+      </c>
+      <c r="O159" t="n">
+        <v>2.1854040685</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8437,6 +10353,18 @@
       <c r="K160" t="n">
         <v>0.08</v>
       </c>
+      <c r="L160" t="n">
+        <v>0.1256</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8488,6 +10416,18 @@
       <c r="K161" t="n">
         <v>0</v>
       </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8539,6 +10479,18 @@
       <c r="K162" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L162" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8590,6 +10542,18 @@
       <c r="K163" t="n">
         <v>0.04666666666666667</v>
       </c>
+      <c r="L163" t="n">
+        <v>0.04573333333333333</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.3481333333333334</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8641,6 +10605,18 @@
       <c r="K164" t="n">
         <v>0.06666666666666667</v>
       </c>
+      <c r="L164" t="n">
+        <v>0.9086666666666667</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.5606666666666666</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8692,6 +10668,18 @@
       <c r="K165" t="n">
         <v>0.04666666666666667</v>
       </c>
+      <c r="L165" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.4176666666666666</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8739,6 +10727,18 @@
       <c r="K166" t="n">
         <v>0.01666666666666667</v>
       </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8786,6 +10786,18 @@
       <c r="K167" t="n">
         <v>0</v>
       </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.243666666666667</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1.647466666666667</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8837,6 +10849,18 @@
       <c r="K168" t="n">
         <v>0.1083333333333333</v>
       </c>
+      <c r="L168" t="n">
+        <v>0.34125</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.9695833333333332</v>
+      </c>
+      <c r="O168" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8888,6 +10912,18 @@
       <c r="K169" t="n">
         <v>0.006666666666666667</v>
       </c>
+      <c r="L169" t="n">
+        <v>0.01046666666666667</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.02566666666666667</v>
+      </c>
+      <c r="O169" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8939,6 +10975,18 @@
       <c r="K170" t="n">
         <v>0.006666666666666667</v>
       </c>
+      <c r="L170" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.05966666666666667</v>
+      </c>
+      <c r="O170" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8986,6 +11034,18 @@
       <c r="K171" t="n">
         <v>0.001642973333333333</v>
       </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -9037,6 +11097,18 @@
       <c r="K172" t="n">
         <v>0.025</v>
       </c>
+      <c r="L172" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2.19475</v>
+      </c>
+      <c r="O172" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -9088,6 +11160,18 @@
       <c r="K173" t="n">
         <v>0.03</v>
       </c>
+      <c r="L173" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.2238</v>
+      </c>
+      <c r="O173" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -9135,6 +11219,18 @@
       <c r="K174" t="n">
         <v>0</v>
       </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -9186,6 +11282,18 @@
       <c r="K175" t="n">
         <v>0.05</v>
       </c>
+      <c r="L175" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.1925</v>
+      </c>
+      <c r="O175" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -9237,6 +11345,18 @@
       <c r="K176" t="n">
         <v>0.05</v>
       </c>
+      <c r="L176" t="n">
+        <v>0.6815</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="O176" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -9284,6 +11404,18 @@
       <c r="K177" t="n">
         <v>0</v>
       </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.759116666666667</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>4.086466666666666</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -9335,6 +11467,18 @@
       <c r="K178" t="n">
         <v>0.1166666666666667</v>
       </c>
+      <c r="L178" t="n">
+        <v>1.1515</v>
+      </c>
+      <c r="M178" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1.425666666666667</v>
+      </c>
+      <c r="O178" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -9382,6 +11526,18 @@
       <c r="K179" t="n">
         <v>0.001642973333333333</v>
       </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -9429,6 +11585,18 @@
       <c r="K180" t="n">
         <v>0.001642973333333333</v>
       </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -9480,6 +11648,18 @@
       <c r="K181" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L181" t="n">
+        <v>0.003975</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="O181" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -9531,6 +11711,18 @@
       <c r="K182" t="n">
         <v>0</v>
       </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -9582,6 +11774,18 @@
       <c r="K183" t="n">
         <v>0.1</v>
       </c>
+      <c r="L183" t="n">
+        <v>0.05000000000000001</v>
+      </c>
+      <c r="M183" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.03900000000000001</v>
+      </c>
+      <c r="O183" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -9633,6 +11837,18 @@
       <c r="K184" t="n">
         <v>0.005</v>
       </c>
+      <c r="L184" t="n">
+        <v>0.01045</v>
+      </c>
+      <c r="M184" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O184" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9684,6 +11900,18 @@
       <c r="K185" t="n">
         <v>0.2666666666666667</v>
       </c>
+      <c r="L185" t="n">
+        <v>0.5573333333333332</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.2133333333333333</v>
+      </c>
+      <c r="O185" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9735,6 +11963,18 @@
       <c r="K186" t="n">
         <v>0.003285946666666666</v>
       </c>
+      <c r="L186" t="n">
+        <v>0.01051502933333333</v>
+      </c>
+      <c r="M186" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.0067033312</v>
+      </c>
+      <c r="O186" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9786,6 +12026,18 @@
       <c r="K187" t="n">
         <v>0.05</v>
       </c>
+      <c r="L187" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4.3895</v>
+      </c>
+      <c r="O187" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9837,6 +12089,18 @@
       <c r="K188" t="n">
         <v>0.1333333333333333</v>
       </c>
+      <c r="L188" t="n">
+        <v>0.2093333333333333</v>
+      </c>
+      <c r="M188" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.5133333333333333</v>
+      </c>
+      <c r="O188" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9888,6 +12152,18 @@
       <c r="K189" t="n">
         <v>0.008333333333333333</v>
       </c>
+      <c r="L189" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.7315833333333334</v>
+      </c>
+      <c r="O189" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9935,6 +12211,18 @@
       <c r="K190" t="n">
         <v>0</v>
       </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>3.386106696</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="n">
+        <v>7.325969997866666</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9986,6 +12274,18 @@
       <c r="K191" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L191" t="n">
+        <v>0.0019875</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.001425</v>
+      </c>
+      <c r="O191" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -10037,6 +12337,18 @@
       <c r="K192" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L192" t="n">
+        <v>0.003975</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="O192" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -10084,6 +12396,18 @@
       <c r="K193" t="n">
         <v>0.005625</v>
       </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -10135,6 +12459,18 @@
       <c r="K194" t="n">
         <v>0.2</v>
       </c>
+      <c r="L194" t="n">
+        <v>1.974</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="O194" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -10182,6 +12518,18 @@
       <c r="K195" t="n">
         <v>0.025</v>
       </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -10233,6 +12581,18 @@
       <c r="K196" t="n">
         <v>0.025</v>
       </c>
+      <c r="L196" t="n">
+        <v>0.01325</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.009500000000000001</v>
+      </c>
+      <c r="O196" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -10280,6 +12640,18 @@
       <c r="K197" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -10331,6 +12703,18 @@
       <c r="K198" t="n">
         <v>0.03125</v>
       </c>
+      <c r="L198" t="n">
+        <v>0.0165625</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.011875</v>
+      </c>
+      <c r="O198" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -10382,6 +12766,18 @@
       <c r="K199" t="n">
         <v>0.025</v>
       </c>
+      <c r="L199" t="n">
+        <v>0.01325</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.009500000000000001</v>
+      </c>
+      <c r="O199" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -10433,6 +12829,18 @@
       <c r="K200" t="n">
         <v>0.07500000000000001</v>
       </c>
+      <c r="L200" t="n">
+        <v>0.03750000000000001</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.02925000000000001</v>
+      </c>
+      <c r="O200" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -10484,6 +12892,18 @@
       <c r="K201" t="n">
         <v>0.1</v>
       </c>
+      <c r="L201" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2.230525</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="O201" t="n">
+        <v>2.8024</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -10535,6 +12955,18 @@
       <c r="K202" t="n">
         <v>0.2333333333333334</v>
       </c>
+      <c r="L202" t="n">
+        <v>0.1073333333333334</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.2053333333333334</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -10586,6 +13018,18 @@
       <c r="K203" t="n">
         <v>0.01</v>
       </c>
+      <c r="L203" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -10637,6 +13081,18 @@
       <c r="K204" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="L204" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.02866666666666667</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -10688,6 +13144,18 @@
       <c r="K205" t="n">
         <v>0.1333333333333333</v>
       </c>
+      <c r="L205" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -10735,6 +13203,18 @@
       <c r="K206" t="n">
         <v>0</v>
       </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10782,6 +13262,18 @@
       <c r="K207" t="n">
         <v>0.1333333333333333</v>
       </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -10829,6 +13321,18 @@
       <c r="K208" t="n">
         <v>0</v>
       </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10876,6 +13380,18 @@
       <c r="K209" t="n">
         <v>0.0008214866666666666</v>
       </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10927,6 +13443,18 @@
       <c r="K210" t="n">
         <v>0.09999999999999999</v>
       </c>
+      <c r="L210" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0.3278</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10978,6 +13506,18 @@
       <c r="K211" t="n">
         <v>0.05</v>
       </c>
+      <c r="L211" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O211" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -11029,6 +13569,18 @@
       <c r="K212" t="n">
         <v>0.1</v>
       </c>
+      <c r="L212" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="O212" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -11076,6 +13628,18 @@
       <c r="K213" t="n">
         <v>0.0225</v>
       </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -11127,6 +13691,18 @@
       <c r="K214" t="n">
         <v>0.2</v>
       </c>
+      <c r="L214" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="O214" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -11178,6 +13754,18 @@
       <c r="K215" t="n">
         <v>0.1</v>
       </c>
+      <c r="L215" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.8410000000000001</v>
+      </c>
+      <c r="O215" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -11229,6 +13817,18 @@
       <c r="K216" t="n">
         <v>0</v>
       </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -11276,6 +13876,18 @@
       <c r="K217" t="n">
         <v>0.015</v>
       </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -11323,6 +13935,18 @@
       <c r="K218" t="n">
         <v>0</v>
       </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>2.4325</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -11374,6 +13998,18 @@
       <c r="K219" t="n">
         <v>0.025</v>
       </c>
+      <c r="L219" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11421,6 +14057,18 @@
       <c r="K220" t="n">
         <v>0</v>
       </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -11472,6 +14120,18 @@
       <c r="K221" t="n">
         <v>0.05</v>
       </c>
+      <c r="L221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -11523,6 +14183,18 @@
       <c r="K222" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L222" t="n">
+        <v>0.0019875</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.001425</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -11570,6 +14242,18 @@
       <c r="K223" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -11621,6 +14305,18 @@
       <c r="K224" t="n">
         <v>0.1</v>
       </c>
+      <c r="L224" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -11672,6 +14368,18 @@
       <c r="K225" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L225" t="n">
+        <v>0.015675</v>
+      </c>
+      <c r="M225" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -11723,6 +14431,18 @@
       <c r="K226" t="n">
         <v>0.001875</v>
       </c>
+      <c r="L226" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M226" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.003825</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -11770,6 +14490,18 @@
       <c r="K227" t="n">
         <v>0.07500000000000001</v>
       </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11821,6 +14553,18 @@
       <c r="K228" t="n">
         <v>0.05</v>
       </c>
+      <c r="L228" t="n">
+        <v>0.2225</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -11872,6 +14616,18 @@
       <c r="K229" t="n">
         <v>0.01125</v>
       </c>
+      <c r="L229" t="n">
+        <v>0.0363375</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.1024875</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -11923,6 +14679,18 @@
       <c r="K230" t="n">
         <v>0.075</v>
       </c>
+      <c r="L230" t="n">
+        <v>2.01525</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.22275</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -11974,6 +14742,18 @@
       <c r="K231" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L231" t="n">
+        <v>0.0118125</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.0335625</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -12021,6 +14801,18 @@
       <c r="K232" t="n">
         <v>0</v>
       </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -12068,6 +14860,18 @@
       <c r="K233" t="n">
         <v>0</v>
       </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2.5560625</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0.6193</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -12119,6 +14923,18 @@
       <c r="K234" t="n">
         <v>0.05</v>
       </c>
+      <c r="L234" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -12170,6 +14986,18 @@
       <c r="K235" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L235" t="n">
+        <v>0.0019875</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.001425</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -12217,6 +15045,18 @@
       <c r="K236" t="n">
         <v>0.015</v>
       </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -12264,6 +15104,18 @@
       <c r="K237" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -12315,6 +15167,18 @@
       <c r="K238" t="n">
         <v>0.07500000000000001</v>
       </c>
+      <c r="L238" t="n">
+        <v>0.07875000000000001</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.06675000000000002</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -12366,6 +15230,18 @@
       <c r="K239" t="n">
         <v>0.025</v>
       </c>
+      <c r="L239" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -12413,6 +15289,18 @@
       <c r="K240" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -12464,6 +15352,18 @@
       <c r="K241" t="n">
         <v>0.075</v>
       </c>
+      <c r="L241" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.5595</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -12515,6 +15415,18 @@
       <c r="K242" t="n">
         <v>0.0125</v>
       </c>
+      <c r="L242" t="n">
+        <v>0.039375</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.111875</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -12562,6 +15474,18 @@
       <c r="K243" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -12613,6 +15537,18 @@
       <c r="K244" t="n">
         <v>0.1</v>
       </c>
+      <c r="L244" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.8410000000000001</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -12664,6 +15600,18 @@
       <c r="K245" t="n">
         <v>0.025</v>
       </c>
+      <c r="L245" t="n">
+        <v>0.009750000000000002</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1.6018625</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1.6558</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -12715,6 +15663,18 @@
       <c r="K246" t="n">
         <v>0.075</v>
       </c>
+      <c r="L246" t="n">
+        <v>0.03975</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -12766,6 +15726,18 @@
       <c r="K247" t="n">
         <v>0.075</v>
       </c>
+      <c r="L247" t="n">
+        <v>0.11775</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.28875</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -12817,6 +15789,18 @@
       <c r="K248" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L248" t="n">
+        <v>0.0121125</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.0341625</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -12868,6 +15852,18 @@
       <c r="K249" t="n">
         <v>0</v>
       </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -12919,6 +15915,18 @@
       <c r="K250" t="n">
         <v>0</v>
       </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -12970,6 +15978,18 @@
       <c r="K251" t="n">
         <v>0.0075</v>
       </c>
+      <c r="L251" t="n">
+        <v>0.1791</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.658425</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -13021,6 +16041,18 @@
       <c r="K252" t="n">
         <v>0.00375</v>
       </c>
+      <c r="L252" t="n">
+        <v>0.0019875</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.001425</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -13072,6 +16104,18 @@
       <c r="K253" t="n">
         <v>0.0125</v>
       </c>
+      <c r="L253" t="n">
+        <v>0.153875</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1.2682625</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -13122,6 +16166,18 @@
       </c>
       <c r="K254" t="n">
         <v>0.05</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.609075</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1.2682625</v>
       </c>
     </row>
   </sheetData>
